--- a/interior-cost-calculator/src/data/materials_cost.xlsx
+++ b/interior-cost-calculator/src/data/materials_cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanis\Downloads\P Projects\Interior Streamlit app\Interior-Cost-Calculator\interior-cost-calculator\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279B8E9B-2AE4-4606-851A-C8D9F201C529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1E66B8-59F7-423E-B533-31B1A3A66AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BBAC3F1-9F1F-44CD-878E-E7FA4AA930C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8BBAC3F1-9F1F-44CD-878E-E7FA4AA930C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Plywood" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="87">
   <si>
     <t>DENINE</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>Oroply</t>
-  </si>
-  <si>
-    <t>Greenpanel</t>
   </si>
   <si>
     <t>Club Grade</t>
@@ -1162,8 +1159,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4420,7 +4417,7 @@
         <v>7</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>55</v>
@@ -4440,7 +4437,7 @@
         <v>7</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>10</v>
@@ -4460,7 +4457,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>16</v>
@@ -4480,7 +4477,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>18</v>
@@ -4500,7 +4497,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
@@ -4644,7 +4641,7 @@
         <v>62</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D166" s="2">
         <v>2496</v>
@@ -4665,7 +4662,7 @@
         <v>63</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D167" s="2">
         <v>1744</v>
@@ -4686,7 +4683,7 @@
         <v>63</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D168" s="2">
         <v>1736</v>
@@ -4707,7 +4704,7 @@
         <v>64</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D169" s="2">
         <v>2464</v>
@@ -4746,7 +4743,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>21</v>
@@ -4766,7 +4763,7 @@
         <v>7</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>4</v>
@@ -4786,7 +4783,7 @@
         <v>7</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
@@ -4806,7 +4803,7 @@
         <v>7</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>10</v>
@@ -4826,7 +4823,7 @@
         <v>7</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>16</v>
@@ -4846,7 +4843,7 @@
         <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>5</v>
@@ -4866,7 +4863,7 @@
         <v>7</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>22</v>
@@ -4891,8 +4888,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5371,13 +5368,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>1693</v>
@@ -5391,13 +5388,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>2345</v>
@@ -5411,13 +5408,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25">
         <v>2455</v>
@@ -5431,13 +5428,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>67</v>
       </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>558</v>
@@ -5451,13 +5448,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>901</v>
@@ -5471,13 +5468,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
         <v>67</v>
       </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>2750</v>
@@ -5491,13 +5488,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>4074</v>
@@ -5514,10 +5511,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <v>2781</v>
@@ -5534,10 +5531,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <v>605</v>
@@ -5554,10 +5551,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32">
         <v>1069</v>
@@ -5574,10 +5571,10 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33">
         <v>1441</v>
@@ -5594,10 +5591,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="5">
         <v>2192</v>
@@ -5614,10 +5611,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35">
         <v>3262</v>
@@ -5634,10 +5631,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36">
         <v>4477</v>
@@ -5654,10 +5651,10 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37">
         <v>6319</v>
@@ -5674,10 +5671,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38">
         <v>6715</v>
@@ -5694,10 +5691,10 @@
         <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39">
         <v>2216</v>
@@ -5714,10 +5711,10 @@
         <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" s="5">
         <v>2216</v>
@@ -5731,13 +5728,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
         <v>71</v>
       </c>
-      <c r="B41" t="s">
-        <v>72</v>
-      </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="5">
         <v>978</v>
@@ -5751,13 +5748,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
         <v>71</v>
       </c>
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="5">
         <v>1235</v>
@@ -5771,13 +5768,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
         <v>71</v>
       </c>
-      <c r="B43" t="s">
-        <v>72</v>
-      </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="5">
         <v>2544</v>
@@ -5791,13 +5788,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="5">
         <v>554</v>
@@ -5811,13 +5808,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="B45" t="s">
-        <v>72</v>
-      </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="5">
         <v>2984</v>

--- a/interior-cost-calculator/src/data/materials_cost.xlsx
+++ b/interior-cost-calculator/src/data/materials_cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanis\Downloads\P Projects\Interior Streamlit app\Interior-Cost-Calculator\interior-cost-calculator\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1E66B8-59F7-423E-B533-31B1A3A66AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AB34B0-2353-413C-8BE4-A20C4B1EDAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8BBAC3F1-9F1F-44CD-878E-E7FA4AA930C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BBAC3F1-9F1F-44CD-878E-E7FA4AA930C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Plywood" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="88">
   <si>
     <t>DENINE</t>
   </si>
@@ -278,13 +278,16 @@
     <t>Ecotec MR</t>
   </si>
   <si>
-    <t>MR 303</t>
-  </si>
-  <si>
     <t>18 MM</t>
   </si>
   <si>
     <t>12 MM</t>
+  </si>
+  <si>
+    <t>Ecotec MR 303</t>
+  </si>
+  <si>
+    <t>24MM</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAE203C-7570-44E6-9960-46517836B155}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4641,7 +4644,7 @@
         <v>62</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D166" s="2">
         <v>2496</v>
@@ -4662,7 +4665,7 @@
         <v>63</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D167" s="2">
         <v>1744</v>
@@ -4683,7 +4686,7 @@
         <v>63</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D168" s="2">
         <v>1736</v>
@@ -4704,7 +4707,7 @@
         <v>64</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D169" s="2">
         <v>2464</v>
@@ -4743,19 +4746,19 @@
         <v>7</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D171" s="2">
-        <v>1376</v>
+        <v>1216</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F171" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4763,19 +4766,19 @@
         <v>7</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D172" s="2">
-        <v>1792</v>
+        <v>1440</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F172" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4783,19 +4786,19 @@
         <v>7</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D173" s="2">
-        <v>2112</v>
+        <v>1792</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F173" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4803,19 +4806,19 @@
         <v>7</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D174" s="2">
-        <v>2656</v>
+        <v>2320</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F174" s="2">
-        <v>83</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4823,19 +4826,19 @@
         <v>7</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D175" s="2">
-        <v>3264</v>
+        <v>2480</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F175" s="2">
-        <v>102</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4843,39 +4846,19 @@
         <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D176" s="2">
-        <v>3680</v>
+        <v>3104</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F176" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D177" s="2">
-        <v>5344</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F177" s="2">
-        <v>167</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4888,8 +4871,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
